--- a/mbs-perturbation/mega/knn/nearmiss/mega-knn-nearmiss-results.xlsx
+++ b/mbs-perturbation/mega/knn/nearmiss/mega-knn-nearmiss-results.xlsx
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.7741935483870968</v>
+        <v>0.5588235294117647</v>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>0.3958333333333333</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8727272727272727</v>
+        <v>0.4634146341463415</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8472222222222221</v>
+        <v>0.3396267361111111</v>
       </c>
     </row>
     <row r="3">
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9387755102040817</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="C3" t="n">
         <v>0.9787234042553191</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9583333333333333</v>
+        <v>0.793103448275862</v>
       </c>
       <c r="E3" t="n">
-        <v>0.97052304964539</v>
+        <v>0.6899379432624113</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.8823529411764706</v>
+        <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>0.6382978723404256</v>
+        <v>0.3404255319148936</v>
       </c>
       <c r="D4" t="n">
-        <v>0.7407407407407407</v>
+        <v>0.5079365079365079</v>
       </c>
       <c r="E4" t="n">
-        <v>0.931072695035461</v>
+        <v>0.9727393617021277</v>
       </c>
     </row>
     <row r="5">
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9787234042553191</v>
+        <v>0.9714285714285714</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9583333333333334</v>
+        <v>0.7083333333333334</v>
       </c>
       <c r="D5" t="n">
-        <v>0.968421052631579</v>
+        <v>0.8192771084337349</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9671985815602837</v>
+        <v>0.8543882978723405</v>
       </c>
     </row>
     <row r="6">
@@ -543,16 +543,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2291666666666667</v>
+        <v>0.125</v>
       </c>
       <c r="D6" t="n">
-        <v>0.3728813559322033</v>
+        <v>0.2181818181818182</v>
       </c>
       <c r="E6" t="n">
-        <v>0.6540336879432624</v>
+        <v>0.5447695035460993</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9148090808045936</v>
+        <v>0.8108123249299719</v>
       </c>
       <c r="C7" t="n">
-        <v>0.760904255319149</v>
+        <v>0.5096631205673759</v>
       </c>
       <c r="D7" t="n">
-        <v>0.7826207510730258</v>
+        <v>0.560382703394853</v>
       </c>
       <c r="E7" t="n">
-        <v>0.8740100472813239</v>
+        <v>0.680292368498818</v>
       </c>
     </row>
   </sheetData>

--- a/mbs-perturbation/mega/knn/nearmiss/mega-knn-nearmiss-results.xlsx
+++ b/mbs-perturbation/mega/knn/nearmiss/mega-knn-nearmiss-results.xlsx
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.5588235294117647</v>
+        <v>0.5443037974683544</v>
       </c>
       <c r="C2" t="n">
-        <v>0.3958333333333333</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0.4634146341463415</v>
+        <v>0.7049180327868853</v>
       </c>
       <c r="E2" t="n">
-        <v>0.3396267361111111</v>
+        <v>0.4608879492600422</v>
       </c>
     </row>
     <row r="3">
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9787234042553191</v>
+        <v>0.8372093023255814</v>
       </c>
       <c r="D3" t="n">
-        <v>0.793103448275862</v>
+        <v>0.8470588235294119</v>
       </c>
       <c r="E3" t="n">
-        <v>0.6899379432624113</v>
+        <v>0.7748414376321353</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
+        <v>0.9714285714285714</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3404255319148936</v>
+        <v>0.7727272727272727</v>
       </c>
       <c r="D4" t="n">
-        <v>0.5079365079365079</v>
+        <v>0.8607594936708862</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9727393617021277</v>
+        <v>0.9476744186046511</v>
       </c>
     </row>
     <row r="5">
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9714285714285714</v>
+        <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7083333333333334</v>
+        <v>0.2272727272727273</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8192771084337349</v>
+        <v>0.3703703703703703</v>
       </c>
       <c r="E5" t="n">
-        <v>0.8543882978723405</v>
+        <v>0.6937103594080337</v>
       </c>
     </row>
     <row r="6">
@@ -543,16 +543,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.8571428571428571</v>
+        <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>0.125</v>
+        <v>0.4418604651162791</v>
       </c>
       <c r="D6" t="n">
-        <v>0.2181818181818182</v>
+        <v>0.6129032258064516</v>
       </c>
       <c r="E6" t="n">
-        <v>0.5447695035460993</v>
+        <v>0.8134126554894539</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.8108123249299719</v>
+        <v>0.8745750452079566</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5096631205673759</v>
+        <v>0.6558139534883721</v>
       </c>
       <c r="D7" t="n">
-        <v>0.560382703394853</v>
+        <v>0.6792019892328011</v>
       </c>
       <c r="E7" t="n">
-        <v>0.680292368498818</v>
+        <v>0.7381053640788633</v>
       </c>
     </row>
   </sheetData>
